--- a/Project/Phase 1/Sprint1/Sprint Backlog.xlsx
+++ b/Project/Phase 1/Sprint1/Sprint Backlog.xlsx
@@ -1,26 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cf2fe84c105be00/_FCT - UNL/2022-2023/1º Semestre/ES/ganttproject/Project/Phase 1/Sprint1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3063571F-68BB-4989-9533-1F3714E76BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CC19CBF-8D2D-4A56-B081-7530E12C4EFC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Reviewing</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Identificar design patterns</t>
+  </si>
+  <si>
+    <t>Identificar code smells</t>
+  </si>
+  <si>
+    <t>Rever design patterns</t>
+  </si>
+  <si>
+    <t>Rever code smells</t>
+  </si>
+  <si>
+    <t>Corrigir eventuais erros</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +77,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +132,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +440,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>